--- a/Results/graphs.xlsx
+++ b/Results/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will0\Documents\GitHub\Bin-Packing-with-ACO\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamcoates/repos/Bin-Packing-with-ACO/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2613A777-9B40-45E3-A5D0-9F5BFB67EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F355400-FE3A-2B4B-A584-C6FFC081E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="120" windowWidth="35865" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21780" yWindow="500" windowWidth="34120" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5701,7 +5701,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10812,7 +10812,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15928,7 +15928,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16160,7 +16160,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -16475,7 +16474,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20506,14 +20505,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>223836</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20912,16 +20911,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20941,7 +20940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20961,7 +20960,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20981,7 +20980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21001,7 +21000,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21041,7 +21040,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -21061,7 +21060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -21081,7 +21080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -21101,7 +21100,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21121,7 +21120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21141,7 +21140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21161,7 +21160,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21181,7 +21180,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -21201,7 +21200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -21221,7 +21220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -21241,7 +21240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -21261,7 +21260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -21281,7 +21280,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -21321,7 +21320,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -21341,7 +21340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -21361,7 +21360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -21381,7 +21380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -21401,7 +21400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -21421,7 +21420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -21441,7 +21440,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -21461,7 +21460,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -21481,7 +21480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -21521,7 +21520,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -21541,7 +21540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -21561,7 +21560,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -21581,7 +21580,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -21601,7 +21600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -21621,7 +21620,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -21641,7 +21640,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -21661,7 +21660,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -21681,7 +21680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -21701,7 +21700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -21761,7 +21760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -21801,7 +21800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -21821,7 +21820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -21861,7 +21860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -21881,7 +21880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -21901,7 +21900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -21921,7 +21920,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -21941,7 +21940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -21961,7 +21960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -22001,7 +22000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -22021,7 +22020,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -22041,7 +22040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -22061,7 +22060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -22101,7 +22100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -22121,7 +22120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -22141,7 +22140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -22161,7 +22160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -22181,7 +22180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -22201,7 +22200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -22221,7 +22220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -22241,7 +22240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -22261,7 +22260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -22281,7 +22280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -22301,7 +22300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -22321,7 +22320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -22361,7 +22360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -22381,7 +22380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4</v>
       </c>
@@ -22401,7 +22400,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -22421,7 +22420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -22441,7 +22440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -22461,7 +22460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -22481,7 +22480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -22501,7 +22500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -22521,7 +22520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -22541,7 +22540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5</v>
       </c>
@@ -22561,7 +22560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5</v>
       </c>
@@ -22581,7 +22580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5</v>
       </c>
@@ -22601,7 +22600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5</v>
       </c>
@@ -22621,7 +22620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5</v>
       </c>
@@ -22641,7 +22640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5</v>
       </c>
@@ -22661,7 +22660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5</v>
       </c>
@@ -22681,7 +22680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5</v>
       </c>
@@ -22701,7 +22700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -22741,7 +22740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5</v>
       </c>
@@ -22761,7 +22760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5</v>
       </c>
@@ -22781,7 +22780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5</v>
       </c>
@@ -22821,7 +22820,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -22841,7 +22840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -22861,7 +22860,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -22881,7 +22880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5</v>
       </c>
@@ -22901,7 +22900,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -22921,7 +22920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5</v>
       </c>
@@ -22941,7 +22940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -22961,7 +22960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10</v>
       </c>
@@ -22981,7 +22980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10</v>
       </c>
@@ -23001,7 +23000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10</v>
       </c>
@@ -23021,7 +23020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10</v>
       </c>
@@ -23041,7 +23040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -23061,7 +23060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -23081,7 +23080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -23101,7 +23100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -23121,7 +23120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -23141,7 +23140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -23161,7 +23160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -23181,7 +23180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -23201,7 +23200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -23221,7 +23220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -23241,7 +23240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -23261,7 +23260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -23281,7 +23280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -23301,7 +23300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -23341,7 +23340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>15</v>
       </c>
@@ -23361,7 +23360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>15</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15</v>
       </c>
@@ -23401,7 +23400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>15</v>
       </c>
@@ -23421,7 +23420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>15</v>
       </c>
@@ -23441,7 +23440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>15</v>
       </c>
@@ -23461,7 +23460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>15</v>
       </c>
@@ -23481,7 +23480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>15</v>
       </c>
@@ -23501,7 +23500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>15</v>
       </c>
@@ -23521,7 +23520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>15</v>
       </c>
@@ -23541,7 +23540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>15</v>
       </c>
@@ -23561,7 +23560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>15</v>
       </c>
@@ -23581,7 +23580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>15</v>
       </c>
@@ -23601,7 +23600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>15</v>
       </c>
@@ -23621,7 +23620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15</v>
       </c>
@@ -23641,7 +23640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>15</v>
       </c>
@@ -23661,7 +23660,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>15</v>
       </c>
@@ -23681,7 +23680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>15</v>
       </c>
@@ -23701,7 +23700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>15</v>
       </c>
@@ -23721,7 +23720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>15</v>
       </c>
@@ -23741,7 +23740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>20</v>
       </c>
@@ -23781,7 +23780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>20</v>
       </c>
@@ -23801,7 +23800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>20</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>20</v>
       </c>
@@ -23841,7 +23840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>20</v>
       </c>
@@ -23861,7 +23860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>20</v>
       </c>
@@ -23881,7 +23880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>20</v>
       </c>
@@ -23901,7 +23900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>20</v>
       </c>
@@ -23921,7 +23920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>20</v>
       </c>
@@ -23941,7 +23940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>20</v>
       </c>
@@ -23961,7 +23960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>20</v>
       </c>
@@ -23981,7 +23980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>20</v>
       </c>
@@ -24001,7 +24000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>20</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>20</v>
       </c>
@@ -24041,7 +24040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>20</v>
       </c>
@@ -24061,7 +24060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>20</v>
       </c>
@@ -24081,7 +24080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>20</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>20</v>
       </c>
@@ -24121,7 +24120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20</v>
       </c>
@@ -24141,7 +24140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>25</v>
       </c>
@@ -24161,7 +24160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>25</v>
       </c>
@@ -24181,7 +24180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>25</v>
       </c>
@@ -24201,7 +24200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>25</v>
       </c>
@@ -24221,7 +24220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>25</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>25</v>
       </c>
@@ -24261,7 +24260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>25</v>
       </c>
@@ -24281,7 +24280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>25</v>
       </c>
@@ -24301,7 +24300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>25</v>
       </c>
@@ -24321,7 +24320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>25</v>
       </c>
@@ -24341,7 +24340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>25</v>
       </c>
@@ -24361,7 +24360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>25</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>25</v>
       </c>
@@ -24401,7 +24400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>25</v>
       </c>
@@ -24421,7 +24420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>25</v>
       </c>
@@ -24441,7 +24440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>25</v>
       </c>
@@ -24461,7 +24460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>25</v>
       </c>
@@ -24481,7 +24480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>25</v>
       </c>
@@ -24501,7 +24500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>25</v>
       </c>
@@ -24521,7 +24520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>25</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>30</v>
       </c>
@@ -24561,7 +24560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>30</v>
       </c>
@@ -24581,7 +24580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>30</v>
       </c>
@@ -24601,7 +24600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>30</v>
       </c>
@@ -24621,7 +24620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>30</v>
       </c>
@@ -24641,7 +24640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>30</v>
       </c>
@@ -24661,7 +24660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>30</v>
       </c>
@@ -24681,7 +24680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>30</v>
       </c>
@@ -24701,7 +24700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>30</v>
       </c>
@@ -24721,7 +24720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>30</v>
       </c>
@@ -24741,7 +24740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>30</v>
       </c>
@@ -24761,7 +24760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>30</v>
       </c>
@@ -24781,7 +24780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>30</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>30</v>
       </c>
@@ -24821,7 +24820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>30</v>
       </c>
@@ -24841,7 +24840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>30</v>
       </c>
@@ -24861,7 +24860,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>30</v>
       </c>
@@ -24881,7 +24880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>30</v>
       </c>
@@ -24901,7 +24900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>30</v>
       </c>
@@ -24921,7 +24920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>30</v>
       </c>
@@ -24941,7 +24940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>35</v>
       </c>
@@ -24961,7 +24960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>35</v>
       </c>
@@ -24981,7 +24980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>35</v>
       </c>
@@ -25001,7 +25000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>35</v>
       </c>
@@ -25021,7 +25020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>35</v>
       </c>
@@ -25041,7 +25040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>35</v>
       </c>
@@ -25061,7 +25060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>35</v>
       </c>
@@ -25081,7 +25080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>35</v>
       </c>
@@ -25101,7 +25100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>35</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>35</v>
       </c>
@@ -25141,7 +25140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>35</v>
       </c>
@@ -25161,7 +25160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>35</v>
       </c>
@@ -25181,7 +25180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>35</v>
       </c>
@@ -25201,7 +25200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>35</v>
       </c>
@@ -25221,7 +25220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>35</v>
       </c>
@@ -25241,7 +25240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>35</v>
       </c>
@@ -25261,7 +25260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>35</v>
       </c>
@@ -25281,7 +25280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>35</v>
       </c>
@@ -25301,7 +25300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>35</v>
       </c>
@@ -25321,7 +25320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>35</v>
       </c>
@@ -25341,7 +25340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>40</v>
       </c>
@@ -25361,7 +25360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>40</v>
       </c>
@@ -25381,7 +25380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>40</v>
       </c>
@@ -25401,7 +25400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>40</v>
       </c>
@@ -25421,7 +25420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>40</v>
       </c>
@@ -25441,7 +25440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>40</v>
       </c>
@@ -25461,7 +25460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>40</v>
       </c>
@@ -25481,7 +25480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>40</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>40</v>
       </c>
@@ -25521,7 +25520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>40</v>
       </c>
@@ -25541,7 +25540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>40</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>40</v>
       </c>
@@ -25581,7 +25580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>40</v>
       </c>
@@ -25601,7 +25600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>40</v>
       </c>
@@ -25621,7 +25620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>40</v>
       </c>
@@ -25641,7 +25640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>40</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>40</v>
       </c>
@@ -25681,7 +25680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>40</v>
       </c>
@@ -25701,7 +25700,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>40</v>
       </c>
@@ -25721,7 +25720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>40</v>
       </c>
@@ -25741,7 +25740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>45</v>
       </c>
@@ -25761,7 +25760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>45</v>
       </c>
@@ -25781,7 +25780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>45</v>
       </c>
@@ -25801,7 +25800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>45</v>
       </c>
@@ -25821,7 +25820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>45</v>
       </c>
@@ -25841,7 +25840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>45</v>
       </c>
@@ -25861,7 +25860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>45</v>
       </c>
@@ -25881,7 +25880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>45</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>45</v>
       </c>
@@ -25921,7 +25920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>45</v>
       </c>
@@ -25941,7 +25940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>45</v>
       </c>
@@ -25961,7 +25960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>45</v>
       </c>
@@ -25981,7 +25980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>45</v>
       </c>
@@ -26001,7 +26000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>45</v>
       </c>
@@ -26021,7 +26020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>45</v>
       </c>
@@ -26041,7 +26040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>45</v>
       </c>
@@ -26061,7 +26060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>45</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>45</v>
       </c>
@@ -26101,7 +26100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>45</v>
       </c>
@@ -26121,7 +26120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>45</v>
       </c>
@@ -26141,7 +26140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>50</v>
       </c>
@@ -26161,7 +26160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>50</v>
       </c>
@@ -26181,7 +26180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>50</v>
       </c>
@@ -26201,7 +26200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>50</v>
       </c>
@@ -26221,7 +26220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>50</v>
       </c>
@@ -26241,7 +26240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>50</v>
       </c>
@@ -26261,7 +26260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>50</v>
       </c>
@@ -26281,7 +26280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>50</v>
       </c>
@@ -26301,7 +26300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>50</v>
       </c>
@@ -26321,7 +26320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>50</v>
       </c>
@@ -26341,7 +26340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>50</v>
       </c>
@@ -26361,7 +26360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>50</v>
       </c>
@@ -26381,7 +26380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>50</v>
       </c>
@@ -26401,7 +26400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>50</v>
       </c>
@@ -26421,7 +26420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>50</v>
       </c>
@@ -26441,7 +26440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>50</v>
       </c>
@@ -26461,7 +26460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>50</v>
       </c>
@@ -26481,7 +26480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>50</v>
       </c>
@@ -26501,7 +26500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>50</v>
       </c>
@@ -26521,7 +26520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>50</v>
       </c>
@@ -26541,7 +26540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>55</v>
       </c>
@@ -26561,7 +26560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>55</v>
       </c>
@@ -26581,7 +26580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>55</v>
       </c>
@@ -26601,7 +26600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>55</v>
       </c>
@@ -26621,7 +26620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>55</v>
       </c>
@@ -26641,7 +26640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>55</v>
       </c>
@@ -26661,7 +26660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>55</v>
       </c>
@@ -26681,7 +26680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>55</v>
       </c>
@@ -26701,7 +26700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>55</v>
       </c>
@@ -26721,7 +26720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>55</v>
       </c>
@@ -26741,7 +26740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>55</v>
       </c>
@@ -26761,7 +26760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>55</v>
       </c>
@@ -26781,7 +26780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>55</v>
       </c>
@@ -26801,7 +26800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>55</v>
       </c>
@@ -26821,7 +26820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>55</v>
       </c>
@@ -26841,7 +26840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>55</v>
       </c>
@@ -26861,7 +26860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>55</v>
       </c>
@@ -26881,7 +26880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>55</v>
       </c>
@@ -26901,7 +26900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>55</v>
       </c>
@@ -26921,7 +26920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>55</v>
       </c>
@@ -26941,7 +26940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>60</v>
       </c>
@@ -26961,7 +26960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>60</v>
       </c>
@@ -26981,7 +26980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>60</v>
       </c>
@@ -27001,7 +27000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>60</v>
       </c>
@@ -27021,7 +27020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>60</v>
       </c>
@@ -27041,7 +27040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>60</v>
       </c>
@@ -27061,7 +27060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>60</v>
       </c>
@@ -27081,7 +27080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>60</v>
       </c>
@@ -27101,7 +27100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>60</v>
       </c>
@@ -27121,7 +27120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>60</v>
       </c>
@@ -27141,7 +27140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>60</v>
       </c>
@@ -27161,7 +27160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>60</v>
       </c>
@@ -27181,7 +27180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>60</v>
       </c>
@@ -27201,7 +27200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>60</v>
       </c>
@@ -27221,7 +27220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>60</v>
       </c>
@@ -27241,7 +27240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>60</v>
       </c>
@@ -27261,7 +27260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>60</v>
       </c>
@@ -27281,7 +27280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>60</v>
       </c>
@@ -27301,7 +27300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>60</v>
       </c>
@@ -27321,7 +27320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>60</v>
       </c>
@@ -27341,7 +27340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>65</v>
       </c>
@@ -27361,7 +27360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>65</v>
       </c>
@@ -27381,7 +27380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>65</v>
       </c>
@@ -27401,7 +27400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>65</v>
       </c>
@@ -27421,7 +27420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>65</v>
       </c>
@@ -27441,7 +27440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>65</v>
       </c>
@@ -27461,7 +27460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>65</v>
       </c>
@@ -27481,7 +27480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>65</v>
       </c>
@@ -27501,7 +27500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>65</v>
       </c>
@@ -27521,7 +27520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>65</v>
       </c>
@@ -27541,7 +27540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>65</v>
       </c>
@@ -27561,7 +27560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>65</v>
       </c>
@@ -27581,7 +27580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>65</v>
       </c>
@@ -27601,7 +27600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>65</v>
       </c>
@@ -27621,7 +27620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>65</v>
       </c>
@@ -27641,7 +27640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>65</v>
       </c>
@@ -27661,7 +27660,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>65</v>
       </c>
@@ -27681,7 +27680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>65</v>
       </c>
@@ -27701,7 +27700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>65</v>
       </c>
@@ -27721,7 +27720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>65</v>
       </c>
@@ -27741,7 +27740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>70</v>
       </c>
@@ -27761,7 +27760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>70</v>
       </c>
@@ -27781,7 +27780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>70</v>
       </c>
@@ -27801,7 +27800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>70</v>
       </c>
@@ -27821,7 +27820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>70</v>
       </c>
@@ -27841,7 +27840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>70</v>
       </c>
@@ -27861,7 +27860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>70</v>
       </c>
@@ -27881,7 +27880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>70</v>
       </c>
@@ -27901,7 +27900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>70</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>70</v>
       </c>
@@ -27941,7 +27940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>70</v>
       </c>
@@ -27961,7 +27960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>70</v>
       </c>
@@ -27981,7 +27980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>70</v>
       </c>
@@ -28001,7 +28000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>70</v>
       </c>
@@ -28021,7 +28020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>70</v>
       </c>
@@ -28041,7 +28040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>70</v>
       </c>
@@ -28061,7 +28060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>70</v>
       </c>
@@ -28081,7 +28080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>70</v>
       </c>
@@ -28101,7 +28100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>70</v>
       </c>
@@ -28121,7 +28120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>70</v>
       </c>
@@ -28141,7 +28140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>75</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>75</v>
       </c>
@@ -28181,7 +28180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>75</v>
       </c>
@@ -28201,7 +28200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>75</v>
       </c>
@@ -28221,7 +28220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>75</v>
       </c>
@@ -28241,7 +28240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>75</v>
       </c>
@@ -28261,7 +28260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>75</v>
       </c>
@@ -28281,7 +28280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>75</v>
       </c>
@@ -28301,7 +28300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>75</v>
       </c>
@@ -28321,7 +28320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>75</v>
       </c>
@@ -28341,7 +28340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>75</v>
       </c>
@@ -28361,7 +28360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>75</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>75</v>
       </c>
@@ -28401,7 +28400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>75</v>
       </c>
@@ -28421,7 +28420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>75</v>
       </c>
@@ -28441,7 +28440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>75</v>
       </c>
@@ -28461,7 +28460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>75</v>
       </c>
@@ -28481,7 +28480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>75</v>
       </c>
@@ -28501,7 +28500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>75</v>
       </c>
@@ -28521,7 +28520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>75</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>80</v>
       </c>
@@ -28561,7 +28560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>80</v>
       </c>
@@ -28581,7 +28580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>80</v>
       </c>
@@ -28601,7 +28600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>80</v>
       </c>
@@ -28621,7 +28620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>80</v>
       </c>
@@ -28641,7 +28640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>80</v>
       </c>
@@ -28661,7 +28660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>80</v>
       </c>
@@ -28681,7 +28680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>80</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>80</v>
       </c>
@@ -28721,7 +28720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>80</v>
       </c>
@@ -28741,7 +28740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>80</v>
       </c>
@@ -28761,7 +28760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>80</v>
       </c>
@@ -28781,7 +28780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>80</v>
       </c>
@@ -28801,7 +28800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>80</v>
       </c>
@@ -28821,7 +28820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>80</v>
       </c>
@@ -28841,7 +28840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>80</v>
       </c>
@@ -28861,7 +28860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>80</v>
       </c>
@@ -28881,7 +28880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>80</v>
       </c>
@@ -28901,7 +28900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>80</v>
       </c>
@@ -28921,7 +28920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>80</v>
       </c>
@@ -28941,7 +28940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>85</v>
       </c>
@@ -28961,7 +28960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>85</v>
       </c>
@@ -28981,7 +28980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>85</v>
       </c>
@@ -29001,7 +29000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>85</v>
       </c>
@@ -29021,7 +29020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>85</v>
       </c>
@@ -29041,7 +29040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>85</v>
       </c>
@@ -29061,7 +29060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>85</v>
       </c>
@@ -29081,7 +29080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>85</v>
       </c>
@@ -29101,7 +29100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>85</v>
       </c>
@@ -29121,7 +29120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>85</v>
       </c>
@@ -29141,7 +29140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>85</v>
       </c>
@@ -29161,7 +29160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>85</v>
       </c>
@@ -29181,7 +29180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>85</v>
       </c>
@@ -29201,7 +29200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>85</v>
       </c>
@@ -29221,7 +29220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>85</v>
       </c>
@@ -29241,7 +29240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>85</v>
       </c>
@@ -29261,7 +29260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>85</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>85</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>85</v>
       </c>
@@ -29321,7 +29320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>85</v>
       </c>
@@ -29341,7 +29340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>90</v>
       </c>
@@ -29361,7 +29360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>90</v>
       </c>
@@ -29381,7 +29380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>90</v>
       </c>
@@ -29401,7 +29400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>90</v>
       </c>
@@ -29421,7 +29420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>90</v>
       </c>
@@ -29441,7 +29440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>90</v>
       </c>
@@ -29461,7 +29460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>90</v>
       </c>
@@ -29481,7 +29480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>90</v>
       </c>
@@ -29501,7 +29500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>90</v>
       </c>
@@ -29521,7 +29520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>90</v>
       </c>
@@ -29541,7 +29540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>90</v>
       </c>
@@ -29561,7 +29560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>90</v>
       </c>
@@ -29581,7 +29580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>90</v>
       </c>
@@ -29601,7 +29600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>90</v>
       </c>
@@ -29621,7 +29620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>90</v>
       </c>
@@ -29641,7 +29640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>90</v>
       </c>
@@ -29661,7 +29660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>90</v>
       </c>
@@ -29681,7 +29680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>90</v>
       </c>
@@ -29701,7 +29700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>90</v>
       </c>
@@ -29721,7 +29720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>90</v>
       </c>
@@ -29741,7 +29740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>95</v>
       </c>
@@ -29761,7 +29760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>95</v>
       </c>
@@ -29781,7 +29780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>95</v>
       </c>
@@ -29801,7 +29800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>95</v>
       </c>
@@ -29821,7 +29820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>95</v>
       </c>
@@ -29841,7 +29840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>95</v>
       </c>
@@ -29861,7 +29860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>95</v>
       </c>
@@ -29881,7 +29880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>95</v>
       </c>
@@ -29901,7 +29900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>95</v>
       </c>
@@ -29921,7 +29920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>95</v>
       </c>
@@ -29941,7 +29940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>95</v>
       </c>
@@ -29961,7 +29960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>95</v>
       </c>
@@ -29981,7 +29980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>95</v>
       </c>
@@ -30001,7 +30000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>95</v>
       </c>
@@ -30021,7 +30020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>95</v>
       </c>
@@ -30041,7 +30040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>95</v>
       </c>
@@ -30061,7 +30060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>95</v>
       </c>
@@ -30081,7 +30080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>95</v>
       </c>
@@ -30101,7 +30100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>95</v>
       </c>
@@ -30121,7 +30120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>95</v>
       </c>
@@ -30141,7 +30140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>100</v>
       </c>
@@ -30161,7 +30160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>100</v>
       </c>
@@ -30181,7 +30180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>100</v>
       </c>
@@ -30201,7 +30200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>100</v>
       </c>
@@ -30221,7 +30220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>100</v>
       </c>
@@ -30241,7 +30240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>100</v>
       </c>
@@ -30261,7 +30260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>100</v>
       </c>
@@ -30281,7 +30280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>100</v>
       </c>
@@ -30301,7 +30300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>100</v>
       </c>
@@ -30321,7 +30320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>100</v>
       </c>
@@ -30341,7 +30340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>100</v>
       </c>
@@ -30361,7 +30360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>100</v>
       </c>
@@ -30381,7 +30380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>100</v>
       </c>
@@ -30401,7 +30400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>100</v>
       </c>
@@ -30421,7 +30420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>100</v>
       </c>
@@ -30441,7 +30440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>100</v>
       </c>
@@ -30461,7 +30460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>100</v>
       </c>
@@ -30481,7 +30480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>100</v>
       </c>
@@ -30501,7 +30500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>100</v>
       </c>
@@ -30521,7 +30520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>100</v>
       </c>
@@ -30541,7 +30540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>105</v>
       </c>
@@ -30561,7 +30560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>105</v>
       </c>
@@ -30581,7 +30580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>105</v>
       </c>
@@ -30601,7 +30600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>105</v>
       </c>
@@ -30621,7 +30620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>105</v>
       </c>
@@ -30641,7 +30640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>105</v>
       </c>
@@ -30661,7 +30660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>105</v>
       </c>
@@ -30681,7 +30680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>105</v>
       </c>
@@ -30701,7 +30700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>105</v>
       </c>
@@ -30721,7 +30720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>105</v>
       </c>
@@ -30741,7 +30740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>105</v>
       </c>
@@ -30761,7 +30760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>105</v>
       </c>
@@ -30781,7 +30780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>105</v>
       </c>
@@ -30801,7 +30800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>105</v>
       </c>
@@ -30821,7 +30820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>105</v>
       </c>
@@ -30841,7 +30840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>105</v>
       </c>
@@ -30861,7 +30860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>105</v>
       </c>
@@ -30881,7 +30880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>105</v>
       </c>
@@ -30901,7 +30900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>105</v>
       </c>
@@ -30921,7 +30920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>105</v>
       </c>
@@ -30941,7 +30940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>110</v>
       </c>
@@ -30961,7 +30960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>110</v>
       </c>
@@ -30981,7 +30980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>110</v>
       </c>
@@ -31001,7 +31000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>110</v>
       </c>
@@ -31021,7 +31020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>110</v>
       </c>
@@ -31041,7 +31040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>110</v>
       </c>
@@ -31061,7 +31060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>110</v>
       </c>
@@ -31081,7 +31080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>110</v>
       </c>
@@ -31101,7 +31100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>110</v>
       </c>
@@ -31121,7 +31120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>110</v>
       </c>
@@ -31141,7 +31140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>110</v>
       </c>
@@ -31161,7 +31160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>110</v>
       </c>
@@ -31181,7 +31180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>110</v>
       </c>
@@ -31201,7 +31200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>110</v>
       </c>
@@ -31221,7 +31220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>110</v>
       </c>
@@ -31241,7 +31240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>110</v>
       </c>
@@ -31261,7 +31260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>110</v>
       </c>
@@ -31281,7 +31280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>110</v>
       </c>
@@ -31301,7 +31300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>110</v>
       </c>
@@ -31321,7 +31320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>110</v>
       </c>
@@ -31341,7 +31340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C523">
         <f>MIN(C2:C521)</f>
         <v>7</v>

--- a/Results/graphs.xlsx
+++ b/Results/graphs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamcoates/repos/Bin-Packing-with-ACO/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F355400-FE3A-2B4B-A584-C6FFC081E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCBA8B-BA7F-1F4E-A78C-FCD6517421B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="500" windowWidth="34120" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17640" yWindow="500" windowWidth="37660" windowHeight="23500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Memory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ants</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>current_memory</t>
+  </si>
+  <si>
+    <t>peak_memory</t>
   </si>
 </sst>
 </file>
@@ -671,7 +678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$B$1</c:f>
+              <c:f>Results!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,7 +701,7 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$A$2:$A$521</c:f>
+              <c:f>Results!$A$2:$A$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -2263,7 +2270,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$B$2:$B$521</c:f>
+              <c:f>Results!$B$2:$B$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -3832,7 +3839,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>results!$C$2:$C$521</c:f>
+              <c:f>Results!$C$2:$C$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -5777,7 +5784,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$B$1</c:f>
+              <c:f>Results!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5800,7 +5807,7 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$A$2:$A$521</c:f>
+              <c:f>Results!$A$2:$A$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -7369,7 +7376,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$B$2:$B$521</c:f>
+              <c:f>Results!$B$2:$B$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -8938,7 +8945,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>results!$D$2:$D$521</c:f>
+              <c:f>Results!$D$2:$D$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -10888,7 +10895,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$B$1</c:f>
+              <c:f>Results!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10911,7 +10918,7 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$A$2:$A$521</c:f>
+              <c:f>Results!$A$2:$A$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -12480,7 +12487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$B$2:$B$521</c:f>
+              <c:f>Results!$B$2:$B$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -14049,7 +14056,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>results!$E$2:$E$521</c:f>
+              <c:f>Results!$E$2:$E$521</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="520"/>
@@ -16010,7 +16017,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$1</c:f>
+              <c:f>Results!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16036,11 +16043,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>results!$A:$A</c15:sqref>
+                    <c15:sqref>Results!$A:$A</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(results!$A$10,results!$A$30,results!$A$50,results!$A$70,results!$A$90,results!$A$110,results!$A$130,results!$A$150,results!$A$170,results!$A$190,results!$A$210,results!$A$230,results!$A$250,results!$A$270,results!$A$290,results!$A$523:$A$1048576)</c:f>
+              <c:f>(Results!$A$10,Results!$A$30,Results!$A$50,Results!$A$70,Results!$A$90,Results!$A$110,Results!$A$130,Results!$A$150,Results!$A$170,Results!$A$190,Results!$A$210,Results!$A$230,Results!$A$250,Results!$A$270,Results!$A$290,Results!$A$523:$A$1048576)</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16096,11 +16103,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>results!$F$2:$F$523</c15:sqref>
+                    <c15:sqref>Results!$F$2:$F$523</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(results!$F$11,results!$F$31,results!$F$51,results!$F$71,results!$F$91,results!$F$111,results!$F$131,results!$F$151,results!$F$171,results!$F$191,results!$F$211,results!$F$231,results!$F$251,results!$F$271,results!$F$291)</c:f>
+              <c:f>(Results!$F$11,Results!$F$31,Results!$F$51,Results!$F$71,Results!$F$91,Results!$F$111,Results!$F$131,Results!$F$151,Results!$F$171,Results!$F$191,Results!$F$211,Results!$F$231,Results!$F$251,Results!$F$271,Results!$F$291)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -16571,7 +16578,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>results!$B$2:$B$21</c:f>
+              <c:f>Results!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -16640,7 +16647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$2:$F$21</c:f>
+              <c:f>Results!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -16734,7 +16741,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$22:$F$41</c:f>
+              <c:f>Results!$F$22:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -16828,7 +16835,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$42:$F$61</c:f>
+              <c:f>Results!$F$42:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -16922,7 +16929,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$62:$F$81</c:f>
+              <c:f>Results!$F$62:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -17016,7 +17023,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$82:$F$101</c:f>
+              <c:f>Results!$F$82:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -17110,7 +17117,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$102:$F$121</c:f>
+              <c:f>Results!$F$102:$F$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -17206,7 +17213,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>results!$F$122:$F$141</c:f>
+              <c:f>Results!$F$122:$F$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -17590,6 +17597,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Memory used to Complete 10 Trials</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> when e = 0.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>current_memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>19.458038999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.500776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.488416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9798879999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0743080000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.676812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.374288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1927919999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0771839999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9890159999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9244079999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8748560000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8325039999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8036399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.774656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7519560000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.732164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7159359999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.699632</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6868719999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.677368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6650959999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6548799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6473519999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6378440000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4116-1942-AFAB-F82F481F6191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393275680"/>
+        <c:axId val="393277328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393275680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Ants</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> in Colony (p)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393277328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393277328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Memory used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393275680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17751,6 +18356,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20427,20 +21072,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>195261</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207961</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20467,16 +21628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20503,16 +21664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>223836</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>325436</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20539,16 +21700,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20575,16 +21736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20604,6 +21765,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC0CA2C-BBB9-D54F-A5A7-503143F335A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20911,8 +22113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W51" sqref="W51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31362,4 +32564,317 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4EFDB8-0406-4F46-92D1-AB8B708E3074}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19.458038999999999</v>
+      </c>
+      <c r="C2">
+        <v>19.460255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10.500776</v>
+      </c>
+      <c r="C3">
+        <v>10.507308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.488416</v>
+      </c>
+      <c r="C4">
+        <v>7.49932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.9798879999999999</v>
+      </c>
+      <c r="C5">
+        <v>5.9951080000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.0743080000000003</v>
+      </c>
+      <c r="C6">
+        <v>5.0938280000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.2804000000000002</v>
+      </c>
+      <c r="C7">
+        <v>3.3218040000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2.676812</v>
+      </c>
+      <c r="C8">
+        <v>2.739404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2.374288</v>
+      </c>
+      <c r="C9">
+        <v>2.4585119999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>2.1927919999999999</v>
+      </c>
+      <c r="C10">
+        <v>2.298648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2.0771839999999999</v>
+      </c>
+      <c r="C11">
+        <v>2.2044800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>1.9890159999999999</v>
+      </c>
+      <c r="C12">
+        <v>2.1379440000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1.9244079999999999</v>
+      </c>
+      <c r="C13">
+        <v>2.0948319999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>1.8748560000000001</v>
+      </c>
+      <c r="C14">
+        <v>2.0675680000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>1.8325039999999999</v>
+      </c>
+      <c r="C15">
+        <v>2.047752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>1.8036399999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.0420120000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1.774656</v>
+      </c>
+      <c r="C17">
+        <v>2.0352239999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>1.7519560000000001</v>
+      </c>
+      <c r="C18">
+        <v>2.0350359999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>1.732164</v>
+      </c>
+      <c r="C19">
+        <v>2.0373839999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>1.7159359999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.0432959999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>1.699632</v>
+      </c>
+      <c r="C21">
+        <v>2.0495160000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <v>1.6868719999999999</v>
+      </c>
+      <c r="C22">
+        <v>2.0588679999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>1.677368</v>
+      </c>
+      <c r="C23">
+        <v>2.0715319999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>1.6650959999999999</v>
+      </c>
+      <c r="C24">
+        <v>2.0817839999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>1.6548799999999999</v>
+      </c>
+      <c r="C25">
+        <v>2.0937359999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>1.6473519999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.1082920000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>1.6378440000000001</v>
+      </c>
+      <c r="C27">
+        <v>2.121432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results/graphs.xlsx
+++ b/Results/graphs.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamcoates/repos/Bin-Packing-with-ACO/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCBA8B-BA7F-1F4E-A78C-FCD6517421B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD3EA4-3571-8649-AE3E-04A1C7AA79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="500" windowWidth="37660" windowHeight="23500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2320" windowWidth="26740" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Memory" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Memory!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Memory!$A$2:$A$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Memory!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Memory!$C$2:$C$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -16326,7 +16332,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17717,6 +17723,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2289514909286492E-2"/>
+                  <c:y val="-0.74904057725047657"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Memory!$A$2:$A$27</c:f>
@@ -18195,6 +18251,505 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>peak_memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20991843297074778"/>
+                  <c:y val="-0.84379202284852928"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>19.460255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.507308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.49932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9951080000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0938280000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3218040000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.739404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4585119999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.298648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2044800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1379440000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0948319999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0675680000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.047752</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0420120000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0352239999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0350359999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0373839999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0432959999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0495160000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0588679999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0715319999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0817839999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0937359999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1082920000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.121432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19D8-964A-96BA-ADAC9C43A01F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460466272"/>
+        <c:axId val="460467952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460466272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460467952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460467952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460466272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18396,6 +18951,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21588,6 +22183,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -21806,6 +22917,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17FC7D1-D408-AC44-A230-F2DA9124DF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22114,7 +23261,7 @@
   <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="Z55" sqref="Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32570,8 +33717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4EFDB8-0406-4F46-92D1-AB8B708E3074}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
